--- a/2022/Realme/JUNE/18.06.2022/realme Bank Statement June-20222.xlsx
+++ b/2022/Realme/JUNE/18.06.2022/realme Bank Statement June-20222.xlsx
@@ -2432,6 +2432,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2459,12 +2471,6 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2475,12 +2481,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="37" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4033,67 +4033,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="232" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="232"/>
+      <c r="P1" s="232"/>
+      <c r="Q1" s="232"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="18">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="229"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="229"/>
-      <c r="Q2" s="229"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
     </row>
     <row r="3" spans="1:24" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="234" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="231"/>
-      <c r="N3" s="231"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="231"/>
-      <c r="Q3" s="232"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="236"/>
       <c r="S3" s="42"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4102,52 +4102,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="65" customFormat="1">
-      <c r="A4" s="233" t="s">
+      <c r="A4" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="235" t="s">
+      <c r="B4" s="239" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="228" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="237" t="s">
+      <c r="D4" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="237" t="s">
+      <c r="E4" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="237" t="s">
+      <c r="F4" s="228" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="237" t="s">
+      <c r="G4" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="237" t="s">
+      <c r="H4" s="228" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="237" t="s">
+      <c r="I4" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="237" t="s">
+      <c r="J4" s="228" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="237" t="s">
+      <c r="K4" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="237" t="s">
+      <c r="L4" s="228" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="237" t="s">
+      <c r="M4" s="228" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="243" t="s">
+      <c r="N4" s="230" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="241" t="s">
+      <c r="O4" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="239" t="s">
+      <c r="P4" s="241" t="s">
         <v>30</v>
       </c>
       <c r="Q4" s="64" t="s">
@@ -4160,22 +4160,22 @@
       <c r="W4" s="67"/>
     </row>
     <row r="5" spans="1:24" s="65" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="234"/>
-      <c r="B5" s="236"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-      <c r="G5" s="238"/>
-      <c r="H5" s="238"/>
-      <c r="I5" s="238"/>
-      <c r="J5" s="238"/>
-      <c r="K5" s="238"/>
-      <c r="L5" s="238"/>
-      <c r="M5" s="238"/>
-      <c r="N5" s="244"/>
-      <c r="O5" s="242"/>
-      <c r="P5" s="240"/>
+      <c r="A5" s="238"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="229"/>
+      <c r="J5" s="229"/>
+      <c r="K5" s="229"/>
+      <c r="L5" s="229"/>
+      <c r="M5" s="229"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="244"/>
+      <c r="P5" s="242"/>
       <c r="Q5" s="69" t="s">
         <v>31</v>
       </c>
@@ -7203,6 +7203,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7219,9 +7222,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14762,7 +14762,7 @@
   <dimension ref="A1:AB217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
